--- a/db/쇼핑몰_명세서.xlsx
+++ b/db/쇼핑몰_명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -6444,7 +6444,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7032,7 +7032,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7510,7 +7510,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8805,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8949,7 +8949,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9363,15 +9363,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>304</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>fl_writer = flwriter</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -9389,31 +9389,35 @@
         <v>fl_pw = flpw</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L5" t="e">
+        <f>R12&amp;PROPER(LEFT(T50,2))&amp;MID(T50, 3, LEN(T50)-2)&amp;"(rs.getString("""&amp;T50&amp;"""));"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>fl_idx = flidx</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>fl_ismem = flismem</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>fl_writer = flwriter</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -9449,7 +9453,7 @@
         <v>fl_pw = flpw</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>308</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>fl_title = fltitle</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>fl_content = flcontent</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>316</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>fl_reply = flreply</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>317</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>fl_read = flread</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>318</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>fl_read = fl_ead</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>320</v>
       </c>
@@ -9520,6 +9524,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9528,7 +9533,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/db/쇼핑몰_명세서.xlsx
+++ b/db/쇼핑몰_명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -4977,43 +4977,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>t_member_info : 회원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_order_detail : 주문 상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_info : 회원 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fl_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5836,7 +5836,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7029,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7043,7 +7043,7 @@
     <col min="10" max="10" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>219</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -7160,8 +7160,12 @@
       <c r="I5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5" t="e">
+        <f>"rl.set"&amp;PROPER(LEFT(K5,2))&amp;MID(K5, 3, LEN(K5)-2)&amp;"(rs.getString("""&amp;K5&amp;"""));"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>540</v>
       </c>
@@ -7253,9 +7257,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -7270,7 +7274,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>364</v>
       </c>
       <c r="F5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G5" t="s">
         <v>305</v>
@@ -8838,7 +8842,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -8852,7 +8856,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>233</v>
@@ -8866,7 +8870,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
         <v>366</v>
@@ -8880,7 +8884,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>309</v>
@@ -8894,7 +8898,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>312</v>
@@ -8908,7 +8912,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -8922,7 +8926,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -9365,7 +9369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/db/쇼핑몰_명세서.xlsx
+++ b/db/쇼핑몰_명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljy\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljy326\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -2810,7 +2810,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="553">
   <si>
     <t>t_admin_info : 관리자 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5822,7 +5822,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7031,8 +7031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9369,7 +9369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -9410,9 +9410,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" t="e">
-        <f>R12&amp;PROPER(LEFT(T50,2))&amp;MID(T50, 3, LEN(T50)-2)&amp;"(rs.getString("""&amp;T50&amp;"""));"</f>
-        <v>#VALUE!</v>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="str">
+        <f>K5&amp;PROPER(LEFT(K5,2))&amp;MID(K5, 3, LEN(K5)-2)&amp;"(rs.getString("""&amp;K5&amp;"""));"</f>
+        <v>mi_idMi_id(rs.getString("mi_id"));</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9420,6 +9423,9 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="K6" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9429,6 +9435,9 @@
         <f t="shared" si="0"/>
         <v>fl_idx = flidx</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9438,6 +9447,9 @@
         <f t="shared" si="0"/>
         <v>fl_ismem = flismem</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9447,6 +9459,9 @@
         <f t="shared" si="0"/>
         <v>fl_writer = flwriter</v>
       </c>
+      <c r="K9" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9456,6 +9471,9 @@
         <f t="shared" si="0"/>
         <v>fl_pw = flpw</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9465,6 +9483,9 @@
         <f t="shared" si="0"/>
         <v>fl_title = fltitle</v>
       </c>
+      <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9474,6 +9495,9 @@
         <f t="shared" si="0"/>
         <v>fl_content = flcontent</v>
       </c>
+      <c r="K12" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9483,6 +9507,9 @@
         <f t="shared" si="0"/>
         <v>fl_reply = flreply</v>
       </c>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9492,6 +9519,9 @@
         <f t="shared" si="0"/>
         <v>fl_read = flread</v>
       </c>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9508,6 +9538,9 @@
         <f>E15 &amp; " = " &amp; LEFT(E15, 3) &amp; MID(E15, 5, LEN(E15) - 2)</f>
         <v>fl_read = fl_ead</v>
       </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9523,6 +9556,9 @@
       <c r="F16" t="str">
         <f t="shared" ref="F16" si="1">E16 &amp; " = " &amp; LEFT(E16, 2) &amp; MID(E16, 4, LEN(E16) - 2)</f>
         <v>fld_ismem = fl_ismem</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/db/쇼핑몰_명세서.xlsx
+++ b/db/쇼핑몰_명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljy326\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javatest\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -4697,324 +4697,320 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>si_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>si_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>t_poll_question : 설문조사 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_exam : 설문조사 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기번호 및 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_isuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_poll_result : 설문조사 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fld_ismem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_info : 주문정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_info : 회원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_detail : 주문 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_date</t>
+  </si>
+  <si>
+    <t>si_time</t>
   </si>
   <si>
     <t>si_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_question : 설문조사 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_exam : 설문조사 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기번호 및 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk, ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_exam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_isuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_poll_result : 설문조사 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai, uq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pr, fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oi_addr2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fld_ismem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_info : 주문정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_member_info : 회원 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fl_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_isview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tl_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order_detail : 주문 상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_regdate</t>
   </si>
 </sst>
 </file>
@@ -5836,7 +5832,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7051,7 +7047,7 @@
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="F1" s="19" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -7231,7 +7227,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G8" t="s">
         <v>258</v>
@@ -7245,7 +7241,7 @@
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G9" t="s">
         <v>258</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -7676,7 +7672,7 @@
         <v>364</v>
       </c>
       <c r="F5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G5" t="s">
         <v>305</v>
@@ -8842,7 +8838,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -8856,7 +8852,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
         <v>233</v>
@@ -8870,7 +8866,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
         <v>366</v>
@@ -8884,7 +8880,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
         <v>309</v>
@@ -8898,7 +8894,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B7" t="s">
         <v>312</v>
@@ -8912,7 +8908,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -8926,7 +8922,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -8952,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8973,7 +8969,7 @@
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="F1" s="19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -9019,16 +9015,16 @@
         <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -9045,47 +9041,47 @@
         <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>466</v>
       </c>
       <c r="F5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -9094,21 +9090,21 @@
         <v>467</v>
       </c>
       <c r="F6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -9120,21 +9116,21 @@
         <v>468</v>
       </c>
       <c r="F7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -9146,28 +9142,28 @@
         <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="F10" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -9201,154 +9197,154 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G12" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G14" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G15" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C18" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9369,8 +9365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9551,7 +9547,7 @@
         <v>fl_isview = flisview</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ref="F16" si="1">E16 &amp; " = " &amp; LEFT(E16, 2) &amp; MID(E16, 4, LEN(E16) - 2)</f>
